--- a/Base de dados/AtlasBrasil_Consulta Estado.xlsx
+++ b/Base de dados/AtlasBrasil_Consulta Estado.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Atlas Brasil" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -149,6 +150,90 @@
   </si>
   <si>
     <t xml:space="preserve">Tocantins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO</t>
   </si>
 </sst>
 </file>
@@ -224,9 +309,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -248,16 +337,17 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25:F46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="39.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="39.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="39.04"/>
@@ -1552,4 +1642,378 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:G28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.7"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>